--- a/data/balance_sheet/3digits/total/741_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/741_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>741-Specialised design activities</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>741-Specialised design activities</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>103010.59419</v>
@@ -1490,32 +940,37 @@
         <v>259641.61957</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>443394.50426</v>
+        <v>443700.71394</v>
       </c>
       <c r="H5" s="33" t="n">
         <v>527872.26403</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>677578.9171100002</v>
+        <v>678882.6688400001</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>799482.17106</v>
+        <v>810779.60649</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>1126985.99571</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>1064385.85263</v>
+        <v>1070561.94175</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>1459816.71201</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>1492733.08127</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>1922336.483</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>16361.16553</v>
@@ -1524,38 +979,43 @@
         <v>33285.52581</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>34103.71608999999</v>
+        <v>34103.71609</v>
       </c>
       <c r="F6" s="33" t="n">
         <v>45680.08497</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>85614.69381</v>
+        <v>85619.5858</v>
       </c>
       <c r="H6" s="33" t="n">
         <v>95278.25442</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>116081.76891</v>
+        <v>116258.31431</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>116194.28352</v>
+        <v>119426.9793</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>189249.72959</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>200730.07749</v>
+        <v>201485.71553</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>260694.90476</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>267750.23209</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>380683.115</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>7817.68143</v>
@@ -1570,32 +1030,37 @@
         <v>12974.3857</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>28320.13632</v>
+        <v>28325.02831</v>
       </c>
       <c r="H7" s="21" t="n">
         <v>27317.88357</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>34623.9225</v>
+        <v>34654.64883</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>34267.39549</v>
+        <v>34480.18131</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>46171.00256</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>44654.12473</v>
+        <v>45019.10163</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>58084.69147</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>59688.6855</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>71098.099</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>3014.58991</v>
@@ -1616,7 +1081,7 @@
         <v>24037.93552</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>35766.67616</v>
+        <v>35773.57616</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>25406.8433</v>
@@ -1625,20 +1090,25 @@
         <v>41149.18257</v>
       </c>
       <c r="L8" s="22" t="n">
-        <v>40453.05056999999</v>
+        <v>40675.38872</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>34817.46526999999</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>37461.33991</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>64434.123</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
-        <v>7841.255349999999</v>
+        <v>7841.25535</v>
       </c>
       <c r="D9" s="22" t="n">
         <v>13658.17069</v>
@@ -1650,32 +1120,37 @@
         <v>24109.74496</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>54086.90994</v>
+        <v>54086.90994000001</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>54902.51729</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>65590.08377000001</v>
+        <v>65747.00284</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>78504.80606</v>
+        <v>81524.71601999999</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>129308.24356</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>134994.23801</v>
+        <v>135172.17218</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>191594.15309</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>194446.16414</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>300948.653</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>2990.75875</v>
@@ -1696,7 +1171,7 @@
         <v>13269.94236</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>24860.592</v>
+        <v>24878.592</v>
       </c>
       <c r="J10" s="21" t="n">
         <v>24278.87813</v>
@@ -1705,20 +1180,25 @@
         <v>30638.597</v>
       </c>
       <c r="L10" s="22" t="n">
-        <v>21377.17074</v>
+        <v>21387.17074</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>26240.33703</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>26296.33703</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>59454.733</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
-        <v>678.3975899999999</v>
+        <v>678.39759</v>
       </c>
       <c r="D11" s="22" t="n">
         <v>827.19002</v>
@@ -1745,17 +1225,22 @@
         <v>3259.8979</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>2005.83492</v>
+        <v>2006.22374</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>2438.93196</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>2450.37957</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>3656.973</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>192.38281</v>
@@ -1767,7 +1252,7 @@
         <v>745.55123</v>
       </c>
       <c r="F12" s="33" t="n">
-        <v>593.10241</v>
+        <v>593.1024100000001</v>
       </c>
       <c r="G12" s="23" t="n">
         <v>3845.43876</v>
@@ -1776,7 +1261,7 @@
         <v>1067.07405</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>4513.223889999999</v>
+        <v>4513.22389</v>
       </c>
       <c r="J12" s="33" t="n">
         <v>1333.09224</v>
@@ -1785,17 +1270,22 @@
         <v>1539.21101</v>
       </c>
       <c r="L12" s="23" t="n">
-        <v>761.83713</v>
+        <v>761.8371300000001</v>
       </c>
       <c r="M12" s="23" t="n">
         <v>4623.063929999999</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>5174.199</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>1688.86818</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>170.053</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>93.58657000000001</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>38.33766000000001</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>2603.548</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>4.71652</v>
@@ -1902,7 +1402,7 @@
         <v>103.44105</v>
       </c>
       <c r="K15" s="22" t="n">
-        <v>282.9822599999999</v>
+        <v>282.98226</v>
       </c>
       <c r="L15" s="22" t="n">
         <v>22.08826</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>39.99998</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>190</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>94.07971999999999</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>2855.85811</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>2210.598</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>37517.20478</v>
@@ -2010,32 +1525,37 @@
         <v>103982.7925</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>163652.88595</v>
+        <v>163760.89695</v>
       </c>
       <c r="H18" s="33" t="n">
         <v>191946.39763</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>236215.10614</v>
+        <v>236518.47667</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>272223.39892</v>
+        <v>276388.58355</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>446364.02399</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>371849.92135</v>
+        <v>375425.88762</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>526858.64726</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>546464.15651</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>650083.8639999999</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>32013.83917</v>
@@ -2044,38 +1564,43 @@
         <v>46832.58959999999</v>
       </c>
       <c r="E19" s="22" t="n">
-        <v>64090.31441000001</v>
+        <v>64090.31441</v>
       </c>
       <c r="F19" s="21" t="n">
         <v>93649.56573</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>138707.00423</v>
+        <v>138814.72023</v>
       </c>
       <c r="H19" s="21" t="n">
         <v>162885.95691</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>205364.89211</v>
+        <v>205636.58314</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>239322.89544</v>
+        <v>243485.58007</v>
       </c>
       <c r="K19" s="22" t="n">
-        <v>391425.6509400001</v>
+        <v>391425.65094</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>334585.69308</v>
+        <v>337936.65935</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>487282.01192</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>505336.78638</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>585485.363</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>5014.81294</v>
@@ -2087,7 +1612,7 @@
         <v>7648.553890000001</v>
       </c>
       <c r="F20" s="21" t="n">
-        <v>8817.285360000002</v>
+        <v>8817.28536</v>
       </c>
       <c r="G20" s="22" t="n">
         <v>22486.4151</v>
@@ -2105,17 +1630,22 @@
         <v>49160.70993</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>30135.46765</v>
+        <v>30360.46765</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>31117.44468</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>32601.8679</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>54254.353</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>174.9995</v>
@@ -2207,19 +1747,19 @@
         <v>3774.68883</v>
       </c>
       <c r="F23" s="21" t="n">
-        <v>630.91692</v>
+        <v>630.9169199999999</v>
       </c>
       <c r="G23" s="22" t="n">
-        <v>790.5208</v>
+        <v>790.8158000000001</v>
       </c>
       <c r="H23" s="21" t="n">
         <v>1659.2527</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>1907.22605</v>
+        <v>1938.90555</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>1215.57089</v>
+        <v>1218.07089</v>
       </c>
       <c r="K23" s="22" t="n">
         <v>1648.415</v>
@@ -2228,14 +1768,19 @@
         <v>2620.18784</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>2219.65687</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>2236.14644</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>2985.489</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>109.38196</v>
@@ -2250,7 +1795,7 @@
         <v>166.11234</v>
       </c>
       <c r="G24" s="22" t="n">
-        <v>440.31757</v>
+        <v>440.3175699999999</v>
       </c>
       <c r="H24" s="21" t="n">
         <v>1563.58363</v>
@@ -2268,14 +1813,19 @@
         <v>2372.54604</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>3633.47388</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>3635.92588</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>4313.352</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>1182.20366</v>
@@ -2293,7 +1843,7 @@
         <v>3841.30202</v>
       </c>
       <c r="H25" s="21" t="n">
-        <v>5292.368060000001</v>
+        <v>5292.36806</v>
       </c>
       <c r="I25" s="22" t="n">
         <v>6113.68939</v>
@@ -2302,20 +1852,25 @@
         <v>8600.00755</v>
       </c>
       <c r="K25" s="22" t="n">
-        <v>7239.28565</v>
+        <v>7239.285650000001</v>
       </c>
       <c r="L25" s="22" t="n">
         <v>8654.352779999999</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>9696.99107</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>9807.49107</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>26628.307</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>978.0324499999999</v>
@@ -2348,14 +1903,19 @@
         <v>6518.32604</v>
       </c>
       <c r="M26" s="22" t="n">
-        <v>7090.93116</v>
-      </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+        <v>7154.06116</v>
+      </c>
+      <c r="N26" s="22" t="n">
+        <v>23583</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>6550.81028</v>
@@ -2376,26 +1936,31 @@
         <v>18926.98474</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>26789.58029</v>
+        <v>26792.85654</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>32890.05242</v>
+        <v>33114.66202</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>44170.30473</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>52664.60595</v>
+        <v>53121.38973</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>74846.69945</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>77421.44473999999</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>133593.297</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>4505.679990000001</v>
@@ -2419,23 +1984,28 @@
         <v>19815.87708</v>
       </c>
       <c r="J28" s="21" t="n">
-        <v>24405.74824</v>
+        <v>24599.13433</v>
       </c>
       <c r="K28" s="22" t="n">
         <v>34545.15028</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>42744.23997</v>
+        <v>43189.17353</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>62096.30130000001</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>64297.846</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>105419.815</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>138.46764</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>5710.665</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>46.06592</v>
@@ -2524,7 +2104,7 @@
         <v>73.32013000000001</v>
       </c>
       <c r="E31" s="22" t="n">
-        <v>51.69376999999999</v>
+        <v>51.69377</v>
       </c>
       <c r="F31" s="21" t="n">
         <v>35.93781</v>
@@ -2539,7 +2119,7 @@
         <v>121.45612</v>
       </c>
       <c r="J31" s="21" t="n">
-        <v>84.31001999999999</v>
+        <v>84.31002000000001</v>
       </c>
       <c r="K31" s="22" t="n">
         <v>117.45689</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>177.80758</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>255.65</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>1970.04437</v>
@@ -2567,7 +2152,7 @@
         <v>958.9813</v>
       </c>
       <c r="F32" s="21" t="n">
-        <v>3543.33969</v>
+        <v>3543.339689999999</v>
       </c>
       <c r="G32" s="22" t="n">
         <v>5285.00968</v>
@@ -2576,26 +2161,31 @@
         <v>5362.33315</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>6852.247090000001</v>
+        <v>6855.52334</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>8299.821320000001</v>
+        <v>8331.044830000001</v>
       </c>
       <c r="K32" s="22" t="n">
-        <v>9343.478529999998</v>
+        <v>9343.47853</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>9513.31717</v>
+        <v>9525.167389999999</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>12401.94242</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>12775.14301</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>22174.986</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>29.02</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>32.18051</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>32.181</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,15 +2310,20 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
-        <v>38900.62098</v>
+        <v>38900.62098000001</v>
       </c>
       <c r="D36" s="23" t="n">
         <v>47019.56604999999</v>
@@ -2730,32 +2335,37 @@
         <v>81396.51673</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>132206.1101</v>
+        <v>132346.1101</v>
       </c>
       <c r="H36" s="33" t="n">
         <v>175731.72183</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>245595.40454</v>
+        <v>246333.97579</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>298799.52277</v>
+        <v>300409.00233</v>
       </c>
       <c r="K36" s="23" t="n">
-        <v>315859.11121</v>
+        <v>315859.1112100001</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>332596.90985</v>
+        <v>333787.80829</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>417103.9345600001</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>428367.97073</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>550415.725</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>12580.94021</v>
@@ -2779,29 +2389,34 @@
         <v>60976.54972</v>
       </c>
       <c r="J37" s="21" t="n">
-        <v>71632.13971999999</v>
+        <v>72470.33361</v>
       </c>
       <c r="K37" s="22" t="n">
-        <v>83091.16970999999</v>
+        <v>83091.16971</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>83519.79897000002</v>
+        <v>83823.85261</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>110110.24737</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>112487.24594</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>135582.497</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>5895.10202</v>
       </c>
       <c r="D38" s="22" t="n">
-        <v>560.4404299999999</v>
+        <v>560.4404300000001</v>
       </c>
       <c r="E38" s="22" t="n">
         <v>1018.9084</v>
@@ -2816,7 +2431,7 @@
         <v>9048.66444</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>36236.32562</v>
+        <v>36312.81304000001</v>
       </c>
       <c r="J38" s="21" t="n">
         <v>53018.5209</v>
@@ -2825,17 +2440,22 @@
         <v>23003.1133</v>
       </c>
       <c r="L38" s="22" t="n">
-        <v>31770.60171</v>
+        <v>31776.17798</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>37449.37554</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>37499.4072</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>26338.951</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>3001.07395</v>
@@ -2844,7 +2464,7 @@
         <v>3229.22562</v>
       </c>
       <c r="E39" s="22" t="n">
-        <v>3845.026269999999</v>
+        <v>3845.02627</v>
       </c>
       <c r="F39" s="21" t="n">
         <v>4644.67092</v>
@@ -2865,17 +2485,22 @@
         <v>13160.16012</v>
       </c>
       <c r="L39" s="22" t="n">
-        <v>14045.30195</v>
+        <v>14074.15644</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>23119.10755</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>23141.26016</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>34782.317</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>10070.91756</v>
@@ -2896,26 +2521,31 @@
         <v>56477.61145</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>70328.54944</v>
+        <v>70980.11431999999</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>80734.24020999999</v>
+        <v>80734.24021</v>
       </c>
       <c r="K40" s="22" t="n">
         <v>103743.33582</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>98356.99161</v>
+        <v>99064.6275</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>122225.65283</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>129302.1382</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>168320.945</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>1340.45011</v>
@@ -2933,29 +2563,34 @@
         <v>3611.25464</v>
       </c>
       <c r="H41" s="21" t="n">
-        <v>4936.265350000001</v>
+        <v>4936.26535</v>
       </c>
       <c r="I41" s="22" t="n">
         <v>6609.614840000001</v>
       </c>
       <c r="J41" s="21" t="n">
-        <v>6634.290300000001</v>
+        <v>6634.2903</v>
       </c>
       <c r="K41" s="22" t="n">
         <v>8143.922350000001</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>7767.32885</v>
+        <v>7771.47717</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>11623.07777</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>11632.84541</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>15660.44</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,18 +2625,23 @@
       <c r="M42" s="22" t="n">
         <v>4.562</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>6012.13713</v>
       </c>
       <c r="D43" s="22" t="n">
-        <v>6636.750480000001</v>
+        <v>6636.75048</v>
       </c>
       <c r="E43" s="22" t="n">
         <v>22435.09675</v>
@@ -3010,32 +2650,37 @@
         <v>18526.87849</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>43058.31441000001</v>
+        <v>43198.31441</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>51682.9577</v>
+        <v>51682.95770000001</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>62004.80278</v>
+        <v>62015.32173</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>76154.68484999999</v>
+        <v>76925.97052000002</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>84717.40991</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>97151.18632000001</v>
+        <v>97291.81615</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>112581.0355</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>114309.63582</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>169730.575</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>190.79446</v>
@@ -3068,14 +2713,19 @@
         <v>38466.1612</v>
       </c>
       <c r="M44" s="23" t="n">
-        <v>92145.91678</v>
-      </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+        <v>81388.20853</v>
+      </c>
+      <c r="N44" s="23" t="n">
+        <v>80303.086</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>190.79446</v>
@@ -3102,20 +2752,25 @@
         <v>26822.02383</v>
       </c>
       <c r="K45" s="22" t="n">
-        <v>69104.07396000001</v>
+        <v>69104.07395999999</v>
       </c>
       <c r="L45" s="22" t="n">
         <v>38466.1612</v>
       </c>
       <c r="M45" s="22" t="n">
-        <v>92145.91678</v>
-      </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+        <v>81388.20853</v>
+      </c>
+      <c r="N45" s="22" t="n">
+        <v>80303.086</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>795.6369099999999</v>
@@ -3207,35 +2872,40 @@
         <v>4775.00445</v>
       </c>
       <c r="F48" s="45" t="n">
-        <v>3054.02194</v>
+        <v>3054.021940000001</v>
       </c>
       <c r="G48" s="46" t="n">
-        <v>4250.99337</v>
+        <v>4301.91286</v>
       </c>
       <c r="H48" s="45" t="n">
         <v>3826.97883</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>4596.827490000001</v>
+        <v>4598.01638</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>9719.013449999999</v>
+        <v>9722.791780000001</v>
       </c>
       <c r="K48" s="46" t="n">
-        <v>7922.023289999999</v>
+        <v>7922.02329</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>13246.73582</v>
+        <v>13249.04319</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>9964.406509999999</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>10209.69573</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>11091.203</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>719.0229899999999</v>
@@ -3250,32 +2920,37 @@
         <v>2961.82635</v>
       </c>
       <c r="G49" s="22" t="n">
-        <v>3992.585059999999</v>
+        <v>4043.50455</v>
       </c>
       <c r="H49" s="21" t="n">
         <v>3405.9505</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>3795.48474</v>
+        <v>3796.67363</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>9477.884190000001</v>
+        <v>9481.66252</v>
       </c>
       <c r="K49" s="22" t="n">
-        <v>7673.650040000001</v>
+        <v>7673.65004</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>10710.6336</v>
+        <v>10712.94097</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>9768.3976</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>10013.39682</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>10647.046</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>76.61391999999999</v>
@@ -3308,14 +2983,19 @@
         <v>2536.10222</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>196.00891</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>196.29891</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>444.157</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2501.97844</v>
@@ -3330,32 +3010,37 @@
         <v>10709.6977</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>21764.17911</v>
+        <v>21766.56631</v>
       </c>
       <c r="H51" s="45" t="n">
         <v>26626.2573</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>36317.19909</v>
+        <v>36397.9985</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>41500.78391000001</v>
+        <v>43562.47144</v>
       </c>
       <c r="K51" s="46" t="n">
-        <v>52777.51793000001</v>
+        <v>52777.51793</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>54069.60384</v>
+        <v>54264.09906</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>73579.13875999999</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>76508.30901</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>110991.994</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>1940.65528</v>
@@ -3370,32 +3055,37 @@
         <v>6289.34456</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>11199.29308</v>
+        <v>11201.68028</v>
       </c>
       <c r="H52" s="21" t="n">
         <v>16297.55848</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>24247.47142</v>
+        <v>24321.81512</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>30784.89294999999</v>
+        <v>32200.33406</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>36378.75186</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>36430.00358</v>
+        <v>36665.70713</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>42229.17862999999</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>43356.48875</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>59525.22</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>46.22703</v>
@@ -3419,23 +3109,28 @@
         <v>994.6251099999999</v>
       </c>
       <c r="J53" s="21" t="n">
-        <v>136.13536</v>
+        <v>136.6457</v>
       </c>
       <c r="K53" s="22" t="n">
         <v>3488.675650000001</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>794.7812100000001</v>
+        <v>794.82353</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>234.38682</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>1126.42218</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>927.295</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>64.48358</v>
@@ -3468,20 +3163,25 @@
         <v>701.84136</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>4344.66845</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>4481.77413</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>1298.914</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>171.63362</v>
       </c>
       <c r="D55" s="22" t="n">
-        <v>462.23318</v>
+        <v>462.2331800000001</v>
       </c>
       <c r="E55" s="22" t="n">
         <v>201.75066</v>
@@ -3490,32 +3190,37 @@
         <v>420.78163</v>
       </c>
       <c r="G55" s="22" t="n">
-        <v>707.3692899999999</v>
+        <v>707.3692900000001</v>
       </c>
       <c r="H55" s="21" t="n">
         <v>1378.80233</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>2555.64639</v>
+        <v>2562.1021</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>2388.96767</v>
+        <v>3030.13312</v>
       </c>
       <c r="K55" s="22" t="n">
         <v>3366.79668</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>4664.94217</v>
+        <v>4669.481610000001</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>8373.8334</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>8411.085209999999</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>10514.678</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>222.75989</v>
@@ -3533,7 +3238,7 @@
         <v>9095.967189999999</v>
       </c>
       <c r="H56" s="21" t="n">
-        <v>7603.251569999999</v>
+        <v>7603.25157</v>
       </c>
       <c r="I56" s="22" t="n">
         <v>7488.30124</v>
@@ -3548,14 +3253,19 @@
         <v>10346.62837</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>17528.06622</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>18165.50897</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>35036.42</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>55.54506</v>
@@ -3579,7 +3289,7 @@
         <v>207.48388</v>
       </c>
       <c r="J57" s="21" t="n">
-        <v>201.59661</v>
+        <v>206.16724</v>
       </c>
       <c r="K57" s="22" t="n">
         <v>441.93926</v>
@@ -3588,14 +3298,19 @@
         <v>486.6928199999999</v>
       </c>
       <c r="M57" s="22" t="n">
-        <v>559.5783299999999</v>
-      </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+        <v>657.60286</v>
+      </c>
+      <c r="N57" s="22" t="n">
+        <v>3312.516</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0.06850000000000001</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>287.26542</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>290.654</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0.60548</v>
@@ -3665,16 +3385,21 @@
         <v>65.96941000000001</v>
       </c>
       <c r="L59" s="22" t="n">
-        <v>70.28579000000001</v>
+        <v>24.4957</v>
       </c>
       <c r="M59" s="22" t="n">
         <v>22.16149</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>86.297</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>22255.99684</v>
@@ -3729,38 +3459,43 @@
         <v>51102.20535</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>96357.24683</v>
+        <v>96397.86433000001</v>
       </c>
       <c r="H61" s="37" t="n">
         <v>122450.83443</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>162535.65567</v>
+        <v>162790.49093</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>207440.46122</v>
+        <v>207459.34504</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>257138.29615</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>287189.58023</v>
+        <v>288153.25561</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>323928.21108</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>329629.04598</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>409147.672</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>227.43568</v>
       </c>
       <c r="D62" s="36" t="n">
-        <v>91.13842</v>
+        <v>91.13842000000001</v>
       </c>
       <c r="E62" s="36" t="n">
         <v>3330.62217</v>
@@ -3784,17 +3519,22 @@
         <v>2959.23311</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>3348.46833</v>
+        <v>3348.80543</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>5275.10289</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>5307.259720000001</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>6759.753</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>100.90982</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>100.91</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>3944.17817</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>5388.891</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>227.43568</v>
@@ -3972,7 +3732,7 @@
         <v>1025.94734</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>419.9772399999999</v>
+        <v>419.97724</v>
       </c>
       <c r="I67" s="22" t="n">
         <v>749.68951</v>
@@ -3984,17 +3744,22 @@
         <v>857.3735700000001</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>1005.97545</v>
+        <v>1006.31255</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>1230.0149</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>1262.17173</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>1269.952</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>133.70419</v>
@@ -4067,14 +3837,19 @@
         <v>7193.702159999999</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>3991.9832</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>4128.99613</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>7392.253</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>99.60308000000001</v>
@@ -4107,14 +3882,19 @@
         <v>736.41477</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>2415.44349</v>
-      </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+        <v>2552.45642</v>
+      </c>
+      <c r="N70" s="22" t="n">
+        <v>5129.598</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>405.48493</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>1297.241</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>530.907</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>2</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>6.70622</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>32.10111</v>
@@ -4249,7 +4044,7 @@
         <v>16.83182</v>
       </c>
       <c r="G74" s="22" t="n">
-        <v>387.40832</v>
+        <v>387.4083199999999</v>
       </c>
       <c r="H74" s="21" t="n">
         <v>674.36573</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>1164.34856</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>414.507</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>2.409</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>18890.09057</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>15808.839</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0.625</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>2.409</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>16342.58661</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>16375.261</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>38.25</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>738.25</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>0</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>2585.12896</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>171.828</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>16342.85246</v>
@@ -4809,32 +4674,37 @@
         <v>33668.66465</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>74483.27122</v>
+        <v>74511.21936</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>95336.21767999999</v>
+        <v>95336.21768</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>104362.01567</v>
+        <v>104616.60388</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>128682.22343</v>
+        <v>128697.74192</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>169968.83134</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>195094.79146</v>
+        <v>195952.53125</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>227539.36843</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>232448.74176</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>300633.424</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>1243.651</v>
@@ -4867,14 +4737,19 @@
         <v>9090.56018</v>
       </c>
       <c r="M89" s="22" t="n">
-        <v>11205.86744</v>
-      </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+        <v>11829.86744</v>
+      </c>
+      <c r="N89" s="22" t="n">
+        <v>20435.701</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>0</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>326.11758</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>337.118</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>3073.75246</v>
@@ -4926,7 +4806,7 @@
         <v>3979.4916</v>
       </c>
       <c r="F91" s="21" t="n">
-        <v>5913.164460000001</v>
+        <v>5913.16446</v>
       </c>
       <c r="G91" s="22" t="n">
         <v>22723.48902</v>
@@ -4938,23 +4818,28 @@
         <v>30271.34463</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>41758.37433999999</v>
+        <v>41758.37434</v>
       </c>
       <c r="K91" s="22" t="n">
         <v>60670.54326999999</v>
       </c>
       <c r="L91" s="22" t="n">
-        <v>84148.47262</v>
+        <v>84262.47262</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>96820.79765000001</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>98541.89767000001</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>99602.82399999999</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>4807.61574</v>
@@ -4969,7 +4854,7 @@
         <v>6227.72777</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>12779.65293</v>
+        <v>12784.93552</v>
       </c>
       <c r="H92" s="21" t="n">
         <v>18346.79354</v>
@@ -4978,26 +4863,31 @@
         <v>14826.7322</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>15931.73205</v>
+        <v>15958.00563</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>19968.81605</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>19263.41654</v>
+        <v>19380.96654</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>21157.6896</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>21611.31921</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>28865.746</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
-        <v>8999.215400000001</v>
+        <v>8999.215399999999</v>
       </c>
       <c r="D93" s="22" t="n">
         <v>10708.06264</v>
@@ -5015,26 +4905,31 @@
         <v>38908.82627</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>50384.25435</v>
+        <v>50584.34637</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>56490.43913000001</v>
+        <v>56490.43913</v>
       </c>
       <c r="K93" s="22" t="n">
         <v>69587.93887</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>74240.55604000001</v>
+        <v>74586.96801000001</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>89143.40878</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>91216.33213</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>135981.838</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>9064.758609999999</v>
@@ -5049,32 +4944,37 @@
         <v>17148.06217</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>32561.46299</v>
+        <v>32629.48734</v>
       </c>
       <c r="H94" s="21" t="n">
         <v>39778.39888</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>45578.04431</v>
+        <v>45703.67842</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>51919.33257</v>
+        <v>51935.60013000001</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>63740.30873</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>66837.08033</v>
+        <v>67191.95325999999</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>75733.90186</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>77028.19621000001</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>95933.58</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>147.11424</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>221.89003</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>219.156</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>11972.68119</v>
@@ -5129,32 +5034,37 @@
         <v>19061.062</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>35379.75953</v>
+        <v>35425.11833</v>
       </c>
       <c r="H96" s="21" t="n">
         <v>42613.56851</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>48644.11408</v>
+        <v>48715.252</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>52979.34282</v>
+        <v>53006.36547</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>65988.08057999999</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>67735.60043999999</v>
+        <v>67810.69555</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>78189.95565999999</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>79500.38508000001</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>100574.785</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>446.77479</v>
@@ -5187,14 +5097,19 @@
         <v>6018.52092</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>7201.983810000001</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>7255.83923</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>10824.095</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>532.6514100000001</v>
@@ -5229,18 +5144,23 @@
       <c r="M98" s="22" t="n">
         <v>3917.66734</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>9008.151</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>4547.570320000001</v>
       </c>
       <c r="D99" s="23" t="n">
-        <v>4796.25645</v>
+        <v>4796.256449999999</v>
       </c>
       <c r="E99" s="23" t="n">
         <v>8808.60557</v>
@@ -5249,32 +5169,37 @@
         <v>10931.57693</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>13557.17073</v>
+        <v>13569.84009</v>
       </c>
       <c r="H99" s="33" t="n">
         <v>15865.60357</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>18480.44446</v>
+        <v>18480.69151</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>23148.20215</v>
+        <v>23151.56748</v>
       </c>
       <c r="K99" s="23" t="n">
-        <v>29566.44069000001</v>
+        <v>29566.44069</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>27444.18118</v>
+        <v>27504.06252</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>40095.92985999999</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>40546.66696</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>49812.952</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>2224.33716</v>
@@ -5289,16 +5214,16 @@
         <v>5133.42937</v>
       </c>
       <c r="G100" s="22" t="n">
-        <v>7189.421909999999</v>
+        <v>7190.74423</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>7629.891680000001</v>
+        <v>7629.89168</v>
       </c>
       <c r="I100" s="22" t="n">
         <v>8705.94931</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>11132.60522</v>
+        <v>11145.71741</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>14116.72952</v>
@@ -5307,14 +5232,19 @@
         <v>10701.02336</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>8611.93125</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>8795.85367</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>10461.593</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>46.23957</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>42.89</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>265.76197</v>
@@ -5378,23 +5313,28 @@
         <v>467.63701</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>508.65585</v>
+        <v>506.7189</v>
       </c>
       <c r="K102" s="22" t="n">
-        <v>564.4142999999999</v>
+        <v>564.4143</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>577.6062000000001</v>
+        <v>587.78422</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>568.0967800000001</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>642.2021900000001</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>618.872</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5412,10 +5352,10 @@
         <v>179.66662</v>
       </c>
       <c r="H103" s="21" t="n">
-        <v>843.7141799999999</v>
+        <v>843.7141800000001</v>
       </c>
       <c r="I103" s="22" t="n">
-        <v>1453.4983</v>
+        <v>1453.80711</v>
       </c>
       <c r="J103" s="21" t="n">
         <v>1430.75334</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>14943.35329</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>21946.245</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>4216.31668</v>
@@ -5449,7 +5394,7 @@
         <v>6554.000849999999</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>9048.226570000001</v>
+        <v>9084.45954</v>
       </c>
       <c r="H104" s="21" t="n">
         <v>9794.685750000001</v>
@@ -5458,26 +5403,31 @@
         <v>12464.93651</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>14790.61295</v>
+        <v>14793.02957</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>17077.1703</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>16275.33191</v>
+        <v>16325.55858</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>19818.64475</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>20065.50295</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>27989.062</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
-        <v>929.7783499999999</v>
+        <v>929.77835</v>
       </c>
       <c r="D105" s="22" t="n">
         <v>1075.07195</v>
@@ -5498,7 +5448,7 @@
         <v>4499.611559999999</v>
       </c>
       <c r="J105" s="21" t="n">
-        <v>4922.141320000001</v>
+        <v>4925.68001</v>
       </c>
       <c r="K105" s="22" t="n">
         <v>4111.12551</v>
@@ -5507,14 +5457,19 @@
         <v>3470.69584</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>3586.17614</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>3591.07289</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>4219.939</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>3089.1676</v>
@@ -5526,35 +5481,40 @@
         <v>4564.0672</v>
       </c>
       <c r="F106" s="21" t="n">
-        <v>5521.473819999999</v>
+        <v>5521.47382</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>8599.21441</v>
+        <v>8624.100339999999</v>
       </c>
       <c r="H106" s="21" t="n">
         <v>10680.06231</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>13683.2038</v>
+        <v>13683.26556</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>14960.17139</v>
+        <v>14973.93661</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>18324.42729</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>16107.72075</v>
+        <v>16108.2441</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>17215.32147</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>17274.36715</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>24331.623</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0.54376</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>9736.80955</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>8865.974</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>1.5</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>3682.94576</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>3682.945</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>3682.94576</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>3682.945</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>1.5</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>773.3858100000001</v>
@@ -5864,17 +5859,22 @@
         <v>10436.64129</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>10471.75965</v>
+        <v>10517.4768</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>13655.6493</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>13827.20401</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>14478.904</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>773.06781</v>
@@ -5895,7 +5895,7 @@
         <v>3286.66979</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>4701.95548</v>
+        <v>4701.955480000001</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>7949.7673</v>
@@ -5904,17 +5904,22 @@
         <v>10417.39574</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>10299.98558</v>
+        <v>10345.70273</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>13207.02197</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>13378.57668</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>13952.276</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0.318</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>448.62733</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>526.628</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>227.13938</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>10797.14107</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>10578.602</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>6.4787</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>4.34211</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>1.088</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>192</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>128.12783</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>136.988</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>6.348520000000001</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>290.45451</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>260.894</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>22.31216</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>310.53391</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>307.681</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>130.09529</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>133.215</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>10193.778</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>10005.166</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>125266.59103</v>
@@ -6369,29 +6429,32 @@
         <v>310743.82492</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>539751.7510899999</v>
+        <v>540098.5782699999</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>650323.0984599999</v>
+        <v>650323.09846</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>840114.5727799999</v>
+        <v>841673.15977</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>1006922.63228</v>
+        <v>1018238.95153</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>1384124.29186</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>1351575.43286</v>
+        <v>1358715.19736</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>1783744.92309</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>1822362.12725</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>2331484.155</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>741-Specialised design activities</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>79534.53319</v>
@@ -6501,32 +6578,37 @@
         <v>234260.94149</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>380646.73869</v>
+        <v>380710.1261699999</v>
       </c>
       <c r="H132" s="33" t="n">
         <v>471865.66461</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>623726.30803</v>
+        <v>625180.33884</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>747045.9803800001</v>
+        <v>753788.85966</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>1014274.23625</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>936438.5189400001</v>
+        <v>943808.44956</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>1297901.55755</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>1328924.36259</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>1600539.137</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>14253.58613</v>
@@ -6541,32 +6623,37 @@
         <v>29033.49386</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>45105.85812</v>
+        <v>45141.78702</v>
       </c>
       <c r="H133" s="33" t="n">
         <v>48916.81445000001</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>58780.55143</v>
+        <v>58780.55243</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>66217.17297</v>
+        <v>66198.88903999999</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>82217.81206</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>71177.32161</v>
+        <v>71219.99267000001</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>70317.56317000001</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>70043.66063</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>89843.342</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>13302.14525</v>
@@ -6581,32 +6668,37 @@
         <v>28323.18518</v>
       </c>
       <c r="G134" s="22" t="n">
-        <v>44086.25824</v>
+        <v>44122.18714</v>
       </c>
       <c r="H134" s="21" t="n">
         <v>46640.93375</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>56499.29588000001</v>
+        <v>56499.29687999999</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>63559.28764999999</v>
+        <v>63541.00372</v>
       </c>
       <c r="K134" s="22" t="n">
-        <v>78962.42883000002</v>
+        <v>78962.42882999999</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>67966.83116</v>
+        <v>68008.48366</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>65773.34396</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>65098.62222</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>80145.55899999999</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>98.84824</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>12.2746</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>3.84901</v>
@@ -6673,7 +6770,7 @@
         <v>105.71755</v>
       </c>
       <c r="K136" s="22" t="n">
-        <v>61.01782</v>
+        <v>61.01782000000001</v>
       </c>
       <c r="L136" s="22" t="n">
         <v>0</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>6.03674</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>841.93463</v>
@@ -6707,7 +6809,7 @@
         <v>1086.86708</v>
       </c>
       <c r="I137" s="22" t="n">
-        <v>809.69186</v>
+        <v>809.6918600000001</v>
       </c>
       <c r="J137" s="21" t="n">
         <v>1127.2409</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>1484.04328</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>2656.691</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>7.09904</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,18 +7003,23 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>14.50702</v>
       </c>
       <c r="D142" s="22" t="n">
-        <v>66.34317999999999</v>
+        <v>66.34318</v>
       </c>
       <c r="E142" s="22" t="n">
         <v>68.62142999999999</v>
@@ -6916,17 +7043,22 @@
         <v>2061.23901</v>
       </c>
       <c r="L142" s="22" t="n">
-        <v>2183.91507</v>
+        <v>2184.93363</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>3046.83903</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>3447.65823</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>7039.993</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>35431.66227</v>
@@ -6935,7 +7067,7 @@
         <v>59818.6664</v>
       </c>
       <c r="E143" s="46" t="n">
-        <v>84625.63303000001</v>
+        <v>84625.63303</v>
       </c>
       <c r="F143" s="45" t="n">
         <v>116679.72475</v>
@@ -6947,26 +7079,31 @@
         <v>178523.23324</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>240120.08472</v>
+        <v>240205.74048</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>280066.83445</v>
+        <v>284865.1055299999</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>451306.7358</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>373822.36872</v>
+        <v>379070.0996599999</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>543587.18739</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>567092.94763</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>664903.313</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>27337.49124</v>
@@ -6975,7 +7112,7 @@
         <v>48156.70694</v>
       </c>
       <c r="E144" s="25" t="n">
-        <v>64589.04196</v>
+        <v>64589.04196000001</v>
       </c>
       <c r="F144" s="24" t="n">
         <v>87045.71206999999</v>
@@ -6987,26 +7124,31 @@
         <v>127323.97558</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>186300.85914</v>
+        <v>186386.5149</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>214072.41778</v>
+        <v>218474.41536</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>363068.03409</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>303624.22914</v>
+        <v>307947.29266</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>455676.15636</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>474252.28875</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>531791.87</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>7073.31912</v>
@@ -7015,7 +7157,7 @@
         <v>10787.91018</v>
       </c>
       <c r="E145" s="25" t="n">
-        <v>18581.22716</v>
+        <v>18581.22715999999</v>
       </c>
       <c r="F145" s="24" t="n">
         <v>20112.04194</v>
@@ -7030,23 +7172,28 @@
         <v>47857.50897</v>
       </c>
       <c r="J145" s="24" t="n">
-        <v>55365.97212</v>
+        <v>55760.82962</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>78578.34906000001</v>
       </c>
       <c r="L145" s="25" t="n">
-        <v>57833.26979000001</v>
+        <v>58577.66979</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>71025.62403000001</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>75549.70126</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>91061.092</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>51</v>
@@ -7121,15 +7273,20 @@
       <c r="M147" s="25" t="n">
         <v>758.9137099999999</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>727.1559999999999</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
-        <v>969.8519100000002</v>
+        <v>969.8519099999999</v>
       </c>
       <c r="D148" s="25" t="n">
         <v>823.0492800000001</v>
@@ -7150,23 +7307,28 @@
         <v>5303.11694</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>10252.14473</v>
+        <v>10253.56073</v>
       </c>
       <c r="K148" s="25" t="n">
-        <v>9148.755739999999</v>
+        <v>9148.755740000001</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>11926.86329</v>
+        <v>12107.13071</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>16126.49329</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>16532.04391</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>41323.195</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>14935.32771</v>
@@ -7187,26 +7349,31 @@
         <v>102459.6628</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>135044.05272</v>
+        <v>136375.08604</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>179042.31945</v>
+        <v>180665.11255</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>211427.93604</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>217768.53011</v>
+        <v>218878.09166</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>290008.03866</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>298635.87636</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>345625.598</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>12577.64584</v>
@@ -7218,7 +7385,7 @@
         <v>23161.76399</v>
       </c>
       <c r="F150" s="21" t="n">
-        <v>30527.69648000001</v>
+        <v>30527.69648</v>
       </c>
       <c r="G150" s="22" t="n">
         <v>50031.44654</v>
@@ -7227,26 +7394,31 @@
         <v>93175.9702</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>122887.36603</v>
+        <v>124213.4651</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>161521.02817</v>
+        <v>163139.32217</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>188053.84254</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>192420.44152</v>
+        <v>193464.36019</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>258772.8372</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>266622.8906</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>308206.366</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7270,10 +7442,10 @@
         <v>40.94757</v>
       </c>
       <c r="J151" s="21" t="n">
-        <v>45.40220000000001</v>
+        <v>45.4022</v>
       </c>
       <c r="K151" s="22" t="n">
-        <v>50.10492000000001</v>
+        <v>50.10492</v>
       </c>
       <c r="L151" s="22" t="n">
         <v>45.19669</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>121.52428</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>55.816</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>299.57376</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>169.402</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>698.81489</v>
@@ -7347,26 +7529,31 @@
         <v>3681.8608</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>5373.41695</v>
+        <v>5374.4175</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>7565.663850000002</v>
+        <v>7570.16295</v>
       </c>
       <c r="K153" s="22" t="n">
-        <v>9681.413869999998</v>
+        <v>9681.41387</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>11702.31235</v>
+        <v>11718.32168</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>14979.10234</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>15434.12836</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>16298.771</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>1658.86698</v>
@@ -7387,26 +7574,31 @@
         <v>5230.151180000001</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>6707.4214</v>
+        <v>6711.3551</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>9910.225229999998</v>
+        <v>9910.22523</v>
       </c>
       <c r="K154" s="22" t="n">
         <v>13591.25481</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>13175.96747</v>
+        <v>13225.60102</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>15835.00108</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>16157.75936</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>20895.243</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,15 +7633,20 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
-        <v>8174.21395</v>
+        <v>8174.213949999999</v>
       </c>
       <c r="D156" s="23" t="n">
         <v>11045.05812</v>
@@ -7467,29 +7664,34 @@
         <v>98615.49947</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>115317.1789</v>
+        <v>115320.0989</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>131759.88266</v>
+        <v>131853.60528</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>132152.55513</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>164634.78128</v>
+        <v>165264.21128</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>195286.77207</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>197819.41056</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>272842.422</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
-        <v>8156.93895</v>
+        <v>8156.938949999999</v>
       </c>
       <c r="D157" s="22" t="n">
         <v>11031.01842</v>
@@ -7507,26 +7709,31 @@
         <v>97828.74286</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>110405.76044</v>
+        <v>110406.48044</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>130632.65655</v>
+        <v>130726.37917</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>131061.77039</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>164484.59135</v>
+        <v>165114.02135</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>192876.95069</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>195409.58918</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>269975.249</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>17.275</v>
@@ -7547,7 +7754,7 @@
         <v>786.75661</v>
       </c>
       <c r="I158" s="22" t="n">
-        <v>4911.41846</v>
+        <v>4913.61846</v>
       </c>
       <c r="J158" s="21" t="n">
         <v>1127.22611</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>2409.82138</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>2867.173</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7587,7 +7799,7 @@
         <v>5923.27983</v>
       </c>
       <c r="I159" s="23" t="n">
-        <v>8641.44104</v>
+        <v>8641.441040000002</v>
       </c>
       <c r="J159" s="33" t="n">
         <v>24909.37743</v>
@@ -7599,14 +7811,19 @@
         <v>28675.80427</v>
       </c>
       <c r="M159" s="23" t="n">
-        <v>86436.40141999998</v>
-      </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+        <v>75566.29217999999</v>
+      </c>
+      <c r="N159" s="23" t="n">
+        <v>82692.444</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7627,7 +7844,7 @@
         <v>5922.0241</v>
       </c>
       <c r="I160" s="22" t="n">
-        <v>8641.44104</v>
+        <v>8641.441040000002</v>
       </c>
       <c r="J160" s="21" t="n">
         <v>24909.37743</v>
@@ -7639,14 +7856,19 @@
         <v>28675.80427</v>
       </c>
       <c r="M160" s="22" t="n">
-        <v>86436.40141999998</v>
-      </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+        <v>75566.29217999999</v>
+      </c>
+      <c r="N160" s="22" t="n">
+        <v>82692.444</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,15 +7903,20 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
-        <v>5904.93063</v>
+        <v>5904.930630000001</v>
       </c>
       <c r="D162" s="23" t="n">
         <v>8366.32944</v>
@@ -7701,35 +7928,40 @@
         <v>15669.09124</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>27535.92835</v>
+        <v>27563.08227</v>
       </c>
       <c r="H162" s="33" t="n">
         <v>32202.07866</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>43727.82251999999</v>
+        <v>43761.98895000001</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>55103.05361000001</v>
+        <v>55187.46313</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>70066.98334000001</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>71728.46959000001</v>
+        <v>72064.7818</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>97533.41652000001</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>100354.25888</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>118932.821</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
-        <v>2970.923119999999</v>
+        <v>2970.92312</v>
       </c>
       <c r="D163" s="22" t="n">
         <v>4103.751190000001</v>
@@ -7741,35 +7973,40 @@
         <v>6551.89495</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>14459.75954</v>
+        <v>14475.80402</v>
       </c>
       <c r="H163" s="21" t="n">
         <v>14669.0275</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>20283.033</v>
+        <v>20309.79274</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>20659.29092</v>
+        <v>20726.98407</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>30845.48325</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>31284.3018</v>
+        <v>31492.97895</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>46842.77456999999</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>48519.12392</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>53414.247</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
-        <v>812.41741</v>
+        <v>812.4174099999999</v>
       </c>
       <c r="D164" s="22" t="n">
         <v>1552.8962</v>
@@ -7781,32 +8018,37 @@
         <v>4119.80867</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>4299.505440000001</v>
+        <v>4310.61488</v>
       </c>
       <c r="H164" s="21" t="n">
         <v>5216.63841</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>6798.11646</v>
+        <v>6805.52315</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>8754.22847</v>
+        <v>8770.94484</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>11987.89117</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>12888.41194</v>
+        <v>12922.55329</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>17585.89437</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>18264.94994</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>20468.167</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>2105.5228</v>
@@ -7818,7 +8060,7 @@
         <v>4887.471030000001</v>
       </c>
       <c r="F165" s="21" t="n">
-        <v>4760.369259999999</v>
+        <v>4760.36926</v>
       </c>
       <c r="G165" s="22" t="n">
         <v>8255.86706</v>
@@ -7836,17 +8078,22 @@
         <v>26683.22206</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>27321.62296</v>
+        <v>27415.11667</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>32737.24805</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>33200.57355</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>43636.835</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>16.0673</v>
@@ -7873,20 +8120,25 @@
         <v>317.18448</v>
       </c>
       <c r="K166" s="22" t="n">
-        <v>550.38686</v>
+        <v>550.3868600000001</v>
       </c>
       <c r="L166" s="22" t="n">
         <v>234.13289</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>367.49953</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>369.6114700000001</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>1413.572</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>289.35051</v>
@@ -7901,7 +8153,7 @@
         <v>1276.03077</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>2316.08146</v>
+        <v>2316.38612</v>
       </c>
       <c r="H167" s="33" t="n">
         <v>2460.50023</v>
@@ -7910,23 +8162,28 @@
         <v>2967.54013</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>3397.48326</v>
+        <v>3464.48528</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>3650.11699</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>4915.410140000001</v>
+        <v>4919.313</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>6005.87637</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>6576.95671</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>9649.588</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>1407.25133</v>
@@ -7941,32 +8198,37 @@
         <v>3197.19208</v>
       </c>
       <c r="G168" s="22" t="n">
-        <v>7622.62924</v>
+        <v>7623.56902</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>8812.166170000002</v>
+        <v>8812.16617</v>
       </c>
       <c r="I168" s="22" t="n">
         <v>10397.66869</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>11187.15588</v>
+        <v>11254.1579</v>
       </c>
       <c r="K168" s="22" t="n">
         <v>12646.17819</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>14009.10303</v>
+        <v>14015.3759</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>19616.43763</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>20444.36176</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>29507.236</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>1131.2678</v>
@@ -7981,13 +8243,13 @@
         <v>1967.2056</v>
       </c>
       <c r="G169" s="22" t="n">
-        <v>5322.99741</v>
+        <v>5323.63253</v>
       </c>
       <c r="H169" s="21" t="n">
         <v>6370.72146</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>7447.61534</v>
+        <v>7447.615340000001</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>7806.82069</v>
@@ -7996,17 +8258,22 @@
         <v>9022.208309999998</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>9156.34822</v>
+        <v>9158.71823</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>13824.85981</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>14081.7036</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>20239.298</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>256.239</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>12.73099</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>103.31</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>13.36698</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>201.56756</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>22.101</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>491.38823</v>
@@ -8147,26 +8429,31 @@
         <v>1794.90373</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>16756.60934</v>
+        <v>16756.86364</v>
       </c>
       <c r="J173" s="33" t="n">
-        <v>5924.715949999999</v>
+        <v>6018.584459999999</v>
       </c>
       <c r="K173" s="23" t="n">
-        <v>6881.49281</v>
+        <v>6881.492810000001</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>2296.35971</v>
+        <v>2296.68171</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>8460.62667</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>8225.045400000001</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>15263.387</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>213.2498</v>
@@ -8190,7 +8477,7 @@
         <v>16253.58024</v>
       </c>
       <c r="J174" s="21" t="n">
-        <v>4987.109449999999</v>
+        <v>4989.685960000001</v>
       </c>
       <c r="K174" s="22" t="n">
         <v>5818.87933</v>
@@ -8199,23 +8486,28 @@
         <v>1078.27968</v>
       </c>
       <c r="M174" s="22" t="n">
-        <v>6921.79985</v>
-      </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+        <v>6921.799849999999</v>
+      </c>
+      <c r="N174" s="22" t="n">
+        <v>10364.753</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>278.13843</v>
       </c>
       <c r="D175" s="22" t="n">
-        <v>504.9713399999999</v>
+        <v>504.97134</v>
       </c>
       <c r="E175" s="22" t="n">
-        <v>713.8639400000001</v>
+        <v>713.86394</v>
       </c>
       <c r="F175" s="21" t="n">
         <v>606.31438</v>
@@ -8227,26 +8519,31 @@
         <v>278.42711</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>503.0291</v>
+        <v>503.2834</v>
       </c>
       <c r="J175" s="21" t="n">
-        <v>937.6065</v>
+        <v>1028.8985</v>
       </c>
       <c r="K175" s="22" t="n">
         <v>1062.61348</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>1218.08003</v>
+        <v>1218.40203</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>1538.82682</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>1303.24555</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>4898.634</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>54.07376</v>
@@ -8270,23 +8567,28 @@
         <v>2371.02723</v>
       </c>
       <c r="J176" s="33" t="n">
-        <v>625.1405999999999</v>
+        <v>626.23696</v>
       </c>
       <c r="K176" s="23" t="n">
-        <v>4630.78069</v>
+        <v>4630.780690000001</v>
       </c>
       <c r="L176" s="23" t="n">
         <v>1419.47351</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>265.67528</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>4609.91424</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>786.222</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>35.40708</v>
@@ -8301,7 +8603,7 @@
         <v>131.15549</v>
       </c>
       <c r="G177" s="22" t="n">
-        <v>9.979560000000001</v>
+        <v>9.979559999999999</v>
       </c>
       <c r="H177" s="21" t="n">
         <v>585.05177</v>
@@ -8310,7 +8612,7 @@
         <v>887.8251300000001</v>
       </c>
       <c r="J177" s="21" t="n">
-        <v>210.84461</v>
+        <v>211.94097</v>
       </c>
       <c r="K177" s="22" t="n">
         <v>3492.88088</v>
@@ -8319,14 +8621,19 @@
         <v>802.96487</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>256.05817</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>1156.05155</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>538.553</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>17.98378</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>5.389270000000001</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>11.544</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0.6829</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>1.08151</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8479,14 +8801,19 @@
         <v>3.14633</v>
       </c>
       <c r="M181" s="35" t="n">
-        <v>3.14633</v>
-      </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+        <v>3447.39191</v>
+      </c>
+      <c r="N181" s="35" t="n">
+        <v>235.044</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>7354.38193</v>
@@ -8510,41 +8837,46 @@
         <v>32985.14695</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>58188.19983</v>
+        <v>58260.98849</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>86080.37899</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>81593.95846000001</v>
+        <v>81762.43142000001</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>87092.09693999999</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>90442.62105</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>168270.403</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>3304.672599999999</v>
       </c>
       <c r="D183" s="23" t="n">
-        <v>3457.715189999999</v>
+        <v>3457.71519</v>
       </c>
       <c r="E183" s="23" t="n">
         <v>6424.104859999999</v>
       </c>
       <c r="F183" s="33" t="n">
-        <v>7688.54119</v>
+        <v>7688.541190000002</v>
       </c>
       <c r="G183" s="23" t="n">
         <v>11145.44015</v>
       </c>
       <c r="H183" s="33" t="n">
-        <v>8830.654540000001</v>
+        <v>8830.65454</v>
       </c>
       <c r="I183" s="23" t="n">
         <v>13832.94661</v>
@@ -8559,14 +8891,19 @@
         <v>26620.53543</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>28384.87443</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>29571.45004</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>89853.71400000001</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>2756.48088</v>
@@ -8575,13 +8912,13 @@
         <v>2843.45347</v>
       </c>
       <c r="E184" s="22" t="n">
-        <v>5623.03377</v>
+        <v>5623.033770000001</v>
       </c>
       <c r="F184" s="21" t="n">
         <v>6245.27618</v>
       </c>
       <c r="G184" s="22" t="n">
-        <v>9100.298049999999</v>
+        <v>9100.298050000001</v>
       </c>
       <c r="H184" s="21" t="n">
         <v>6989.367190000001</v>
@@ -8599,14 +8936,19 @@
         <v>26374.04319</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>28104.28103</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>29290.85664</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>89202.098</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>661.3036000000001</v>
@@ -8615,7 +8957,7 @@
         <v>698.3315699999999</v>
       </c>
       <c r="E185" s="22" t="n">
-        <v>908.22001</v>
+        <v>908.2200100000001</v>
       </c>
       <c r="F185" s="21" t="n">
         <v>1726.01633</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>227.98963</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>584.475</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>113.11188</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>22.81751</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>134.169</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>75.42128</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>201.31</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>77.98101</v>
@@ -8879,14 +9251,19 @@
         <v>4995.688200000001</v>
       </c>
       <c r="M191" s="23" t="n">
-        <v>3384.06722</v>
-      </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+        <v>5451.56255</v>
+      </c>
+      <c r="N191" s="23" t="n">
+        <v>4154.836</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0</v>
@@ -8919,14 +9296,19 @@
         <v>160.05637</v>
       </c>
       <c r="M192" s="22" t="n">
-        <v>94.04671</v>
-      </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+        <v>2161.54204</v>
+      </c>
+      <c r="N192" s="22" t="n">
+        <v>159.536</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>75.6105</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>3236.7855</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>3679.693</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>2.37051</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>42.15153</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>315.607</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>11.08348</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>960.96702</v>
@@ -9110,23 +9512,28 @@
         <v>16573.88538</v>
       </c>
       <c r="J197" s="33" t="n">
-        <v>28311.52408</v>
+        <v>28376.76562</v>
       </c>
       <c r="K197" s="23" t="n">
         <v>37350.96178</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>44559.85046</v>
+        <v>44728.32342</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>47392.27609000001</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>47482.74715</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>68631.234</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>950.59</v>
@@ -9150,23 +9557,28 @@
         <v>14710.80985</v>
       </c>
       <c r="J198" s="21" t="n">
-        <v>22127.18642</v>
+        <v>22192.42796</v>
       </c>
       <c r="K198" s="22" t="n">
         <v>30418.64749</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>40805.20279</v>
+        <v>40944.07259</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>45012.29827</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>45073.16617</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>66120.81200000001</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>892.30767</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>244.514</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>10.37702</v>
@@ -9338,7 +9770,7 @@
         <v>77.51277999999999</v>
       </c>
       <c r="F203" s="21" t="n">
-        <v>94.41087000000002</v>
+        <v>94.41086999999999</v>
       </c>
       <c r="G203" s="22" t="n">
         <v>312.03003</v>
@@ -9347,7 +9779,7 @@
         <v>455.568</v>
       </c>
       <c r="I203" s="22" t="n">
-        <v>388.62986</v>
+        <v>388.6298600000001</v>
       </c>
       <c r="J203" s="21" t="n">
         <v>3774.48382</v>
@@ -9356,17 +9788,22 @@
         <v>3495.53527</v>
       </c>
       <c r="L203" s="22" t="n">
-        <v>2799.17672</v>
+        <v>2828.77988</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>1487.67015</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>1517.27331</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>2265.908</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>2996.0885</v>
@@ -9390,7 +9827,7 @@
         <v>1612.49896</v>
       </c>
       <c r="J204" s="33" t="n">
-        <v>913.78034</v>
+        <v>913.7803400000001</v>
       </c>
       <c r="K204" s="23" t="n">
         <v>3900.31845</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>4146.96622</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>4333.677</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9430,7 +9872,7 @@
         <v>1612.49896</v>
       </c>
       <c r="J205" s="21" t="n">
-        <v>913.78034</v>
+        <v>913.7803400000001</v>
       </c>
       <c r="K205" s="22" t="n">
         <v>3900.31845</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>3034.81409</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>3725.968</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>2996.0885</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>1112.15213</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>607.7089999999999</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>99.7852</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>99.7852</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>14.6728</v>
@@ -9630,7 +10097,7 @@
         <v>437.7538099999999</v>
       </c>
       <c r="J210" s="33" t="n">
-        <v>9150.559440000001</v>
+        <v>9158.10656</v>
       </c>
       <c r="K210" s="23" t="n">
         <v>2651.63399</v>
@@ -9639,14 +10106,19 @@
         <v>1170.331</v>
       </c>
       <c r="M210" s="23" t="n">
-        <v>3682.12778</v>
-      </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+        <v>3688.10989</v>
+      </c>
+      <c r="N210" s="23" t="n">
+        <v>1294.237</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>8.53567</v>
@@ -9679,14 +10151,19 @@
         <v>809.342</v>
       </c>
       <c r="M211" s="22" t="n">
-        <v>3124.78338</v>
-      </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+        <v>3126.3545</v>
+      </c>
+      <c r="N211" s="22" t="n">
+        <v>122.554</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>6.13713</v>
@@ -9707,10 +10184,10 @@
         <v>67.08555</v>
       </c>
       <c r="I212" s="22" t="n">
-        <v>95.5347</v>
+        <v>95.53470000000002</v>
       </c>
       <c r="J212" s="21" t="n">
-        <v>431.0029</v>
+        <v>438.55002</v>
       </c>
       <c r="K212" s="22" t="n">
         <v>640.0096</v>
@@ -9719,14 +10196,19 @@
         <v>360.989</v>
       </c>
       <c r="M212" s="22" t="n">
-        <v>557.3444000000001</v>
-      </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+        <v>561.75539</v>
+      </c>
+      <c r="N212" s="22" t="n">
+        <v>1171.683</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>2.705</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>2.705</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>38377.67591</v>
@@ -9898,35 +10400,40 @@
         <v>38488.74421</v>
       </c>
       <c r="F217" s="33" t="n">
-        <v>52419.69182</v>
+        <v>52419.69182000001</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>137616.50998</v>
+        <v>137899.94968</v>
       </c>
       <c r="H217" s="33" t="n">
         <v>147575.84243</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>183403.1178</v>
+        <v>183507.67398</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>201688.45207</v>
+        <v>206189.10338</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>283769.67662</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>333542.95546</v>
+        <v>333144.31638</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>398751.2686</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>402995.14361</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>562674.615</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>52601.69958</v>
@@ -9941,16 +10448,16 @@
         <v>83082.10316000001</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>99306.20538</v>
+        <v>99456.20538</v>
       </c>
       <c r="H218" s="33" t="n">
         <v>125838.86545</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>142801.6792</v>
+        <v>143011.6792</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>159421.03762</v>
+        <v>168039.18997</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>188863.04567</v>
@@ -9959,14 +10466,19 @@
         <v>232974.42243</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>248906.30056</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>249961.43292</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>288569.495</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>43368.52723000001</v>
@@ -9981,32 +10493,37 @@
         <v>85079.5977</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>100503.32583</v>
+        <v>100653.32583</v>
       </c>
       <c r="H219" s="21" t="n">
         <v>127474.18111</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>146699.31002</v>
+        <v>146909.31002</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>166349.99773</v>
+        <v>175009.04949</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>199798.00303</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>247874.528</v>
+        <v>254422.028</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>275949.45809</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>537034.35045</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>337167.044</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>2279.20116</v>
@@ -10030,23 +10547,28 @@
         <v>14993.50515</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>18244.75078</v>
+        <v>18320.25078</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>22813.55713</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>26877.14187</v>
+        <v>33424.64187</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>38920.71619</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>298950.47619</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>60868.597</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>12692.32868</v>
@@ -10070,7 +10592,7 @@
         <v>12178.76832</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>11940.98197</v>
+        <v>11975.58256</v>
       </c>
       <c r="K221" s="22" t="n">
         <v>12503.79107</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>11933.42316</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>12326.913</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>1179.95517</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>55.8645</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>55.865</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>751.20042</v>
@@ -10147,7 +10679,7 @@
         <v>7203.85592</v>
       </c>
       <c r="I223" s="23" t="n">
-        <v>5929.500300000001</v>
+        <v>5929.5003</v>
       </c>
       <c r="J223" s="33" t="n">
         <v>11636.19057</v>
@@ -10159,14 +10691,19 @@
         <v>15656.10307</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>16770.60267</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>16950.60267</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>22207.604</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>2272.12504</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>4310.101</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0</v>
@@ -10279,14 +10826,19 @@
         <v>1483.37496</v>
       </c>
       <c r="M226" s="22" t="n">
-        <v>1474.12099</v>
-      </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+        <v>1654.12099</v>
+      </c>
+      <c r="N226" s="22" t="n">
+        <v>1654.121</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>4480.35092</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>4849.726</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>751.20042</v>
@@ -10424,7 +10991,7 @@
         <v>5108.96666</v>
       </c>
       <c r="H230" s="21" t="n">
-        <v>4799.512779999999</v>
+        <v>4799.51278</v>
       </c>
       <c r="I230" s="22" t="n">
         <v>3115.26216</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>8544.005720000001</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>11393.656</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>4104.50209</v>
@@ -10461,16 +11033,16 @@
         <v>6146.09184</v>
       </c>
       <c r="G231" s="23" t="n">
-        <v>11994.36391</v>
+        <v>11999.93017</v>
       </c>
       <c r="H231" s="33" t="n">
         <v>16583.6112</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>16059.03248</v>
+        <v>16064.58677</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>24642.0526</v>
+        <v>24665.25084</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>26137.40251</v>
@@ -10479,14 +11051,19 @@
         <v>31693.83834</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>29141.73558</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>29207.21699</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>36637.384</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>979.0285200000001</v>
@@ -10501,32 +11078,37 @@
         <v>2134.70081</v>
       </c>
       <c r="G232" s="22" t="n">
-        <v>3722.11281</v>
+        <v>3727.67907</v>
       </c>
       <c r="H232" s="21" t="n">
         <v>6124.304160000001</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>6688.478990000001</v>
+        <v>6694.033280000001</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>7165.968339999999</v>
       </c>
       <c r="K232" s="22" t="n">
-        <v>9388.704040000001</v>
+        <v>9388.704039999999</v>
       </c>
       <c r="L232" s="22" t="n">
         <v>8077.967</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>9051.113690000002</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>9052.026830000001</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>14170.582</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>53.3023</v>
@@ -10550,10 +11132,10 @@
         <v>407.88356</v>
       </c>
       <c r="J233" s="21" t="n">
-        <v>527.9112000000001</v>
+        <v>527.9112</v>
       </c>
       <c r="K233" s="22" t="n">
-        <v>746.32195</v>
+        <v>746.3219499999999</v>
       </c>
       <c r="L233" s="22" t="n">
         <v>1332.97118</v>
@@ -10561,18 +11143,23 @@
       <c r="M233" s="22" t="n">
         <v>1355.4396</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>876.325</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>870.81492</v>
       </c>
       <c r="D234" s="22" t="n">
-        <v>922.4126799999999</v>
+        <v>922.41268</v>
       </c>
       <c r="E234" s="22" t="n">
         <v>860.70499</v>
@@ -10581,13 +11168,13 @@
         <v>3504.88143</v>
       </c>
       <c r="G234" s="22" t="n">
-        <v>4471.04148</v>
+        <v>4471.041480000001</v>
       </c>
       <c r="H234" s="21" t="n">
         <v>6551.00328</v>
       </c>
       <c r="I234" s="22" t="n">
-        <v>6476.70007</v>
+        <v>6476.700069999999</v>
       </c>
       <c r="J234" s="21" t="n">
         <v>11269.40174</v>
@@ -10599,14 +11186,19 @@
         <v>10206.89132</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>12386.83017</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>12451.39844</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>15051.687</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>56.11534</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>147.469</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>2201.35635</v>
@@ -10670,7 +11267,7 @@
         <v>2129.13803</v>
       </c>
       <c r="J236" s="21" t="n">
-        <v>5321.939490000001</v>
+        <v>5345.13773</v>
       </c>
       <c r="K236" s="22" t="n">
         <v>5542.59612</v>
@@ -10679,14 +11276,19 @@
         <v>11921.76336</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>6292.23678</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>6292.236779999999</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>6391.321</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>17399.42908</v>
@@ -10701,38 +11303,43 @@
         <v>35534.41831</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>68458.36639</v>
+        <v>68582.48073</v>
       </c>
       <c r="H237" s="33" t="n">
         <v>91963.29195</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>128586.56935</v>
+        <v>128981.45457</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>153686.39257</v>
+        <v>156243.43017</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>189351.34002</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>212139.57959</v>
+        <v>212745.43604</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>245483.39186</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>248467.18883</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>348277.712</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-36871.58445</v>
       </c>
       <c r="D238" s="23" t="n">
-        <v>-42406.57197999999</v>
+        <v>-42406.57198</v>
       </c>
       <c r="E238" s="23" t="n">
         <v>-46975.35858</v>
@@ -10741,32 +11348,37 @@
         <v>-79371.88998000001</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-82485.91778999999</v>
+        <v>-82494.18050999999</v>
       </c>
       <c r="H238" s="33" t="n">
         <v>-109476.08161</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-133557.02389</v>
+        <v>-134049.89101</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-153260.92727</v>
+        <v>-160784.65475</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-190124.33697</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-183877.91821</v>
+        <v>-184147.04901</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-206289.55235</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-207952.78652</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-241141.09</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>392.42919</v>
@@ -10781,38 +11393,43 @@
         <v>4947.70703</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>30181.93735</v>
+        <v>30193.95917</v>
       </c>
       <c r="H239" s="33" t="n">
         <v>15462.29952</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>23583.36036</v>
+        <v>23570.34415</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>5563.705980000001</v>
+        <v>6389.696580000002</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>57422.95442</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>24956.93024</v>
+        <v>24221.56551</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>64738.79028</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>66361.48871999999</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>108123.51</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>6629.1311</v>
       </c>
       <c r="D240" s="22" t="n">
-        <v>8850.29874</v>
+        <v>8850.298739999998</v>
       </c>
       <c r="E240" s="22" t="n">
         <v>14776.62748</v>
@@ -10821,32 +11438,37 @@
         <v>16051.38675</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>42599.41097</v>
+        <v>42611.43279000001</v>
       </c>
       <c r="H240" s="21" t="n">
         <v>43993.47105</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>55088.08652</v>
+        <v>55111.65075</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>53143.0208</v>
+        <v>53790.88622</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>94658.86856</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>80567.47553999998</v>
+        <v>80787.38921000001</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>115935.96648</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>119618.64161</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>165408.086</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>6236.70191</v>
@@ -10867,26 +11489,31 @@
         <v>28531.17153</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>31504.72616</v>
+        <v>31541.3066</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>47579.31482</v>
+        <v>47401.18964</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>37235.91414</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>55610.5453</v>
+        <v>56565.8237</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>51197.1762</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>53257.15289</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>57284.576</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>125266.59103</v>
@@ -10901,29 +11528,32 @@
         <v>310743.82492</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>539751.7510899999</v>
+        <v>540098.5782699999</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>650323.09846</v>
+        <v>650323.0984599999</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>840114.5727799999</v>
+        <v>841673.15977</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>1006922.63228</v>
+        <v>1018238.95153</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>1384124.29186</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>1351575.43286</v>
+        <v>1358715.19736</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>1783744.92309</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>1822362.12725</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>2331484.155</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>235</v>
@@ -10957,29 +11590,32 @@
         <v>586</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H244" s="53" t="n">
         <v>1067</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>1481</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>1507</v>
+        <v>1572</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>1603</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>1726</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>1847</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>